--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -531,52 +531,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H2">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N2">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q2">
-        <v>0.02674990575888889</v>
+        <v>0.1294187162745556</v>
       </c>
       <c r="R2">
-        <v>0.24074915183</v>
+        <v>1.164768446471</v>
       </c>
       <c r="S2">
-        <v>0.03756770843014227</v>
+        <v>0.07164900893002991</v>
       </c>
       <c r="T2">
-        <v>0.03756770843014227</v>
+        <v>0.0716490089300299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H3">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N3">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q3">
-        <v>0.01790992018444445</v>
+        <v>0.1235818551652222</v>
       </c>
       <c r="R3">
-        <v>0.16118928166</v>
+        <v>1.112236696487</v>
       </c>
       <c r="S3">
-        <v>0.02515278616533999</v>
+        <v>0.06841759599545276</v>
       </c>
       <c r="T3">
-        <v>0.02515278616533999</v>
+        <v>0.06841759599545276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>2.381805</v>
       </c>
       <c r="I4">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J4">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N4">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q4">
-        <v>0.371526382215</v>
+        <v>0.649504197315</v>
       </c>
       <c r="R4">
-        <v>3.343737439935</v>
+        <v>5.845537775835</v>
       </c>
       <c r="S4">
-        <v>0.5217736064928277</v>
+        <v>0.3595796139314947</v>
       </c>
       <c r="T4">
-        <v>0.5217736064928278</v>
+        <v>0.3595796139314947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>2.381805</v>
       </c>
       <c r="I5">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J5">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N5">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q5">
-        <v>0.24874883343</v>
+        <v>0.6202111715549999</v>
       </c>
       <c r="R5">
-        <v>2.23873950087</v>
+        <v>5.581900543994999</v>
       </c>
       <c r="S5">
-        <v>0.3493441708119284</v>
+        <v>0.3433623593899391</v>
       </c>
       <c r="T5">
-        <v>0.3493441708119285</v>
+        <v>0.343362359389939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H6">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I6">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J6">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N6">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O6">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P6">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q6">
-        <v>0.02637663312211111</v>
+        <v>0.09816142648255555</v>
       </c>
       <c r="R6">
-        <v>0.237389698099</v>
+        <v>0.883452838343</v>
       </c>
       <c r="S6">
-        <v>0.0370434823745511</v>
+        <v>0.05434429520775472</v>
       </c>
       <c r="T6">
-        <v>0.0370434823745511</v>
+        <v>0.0543442952077547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H7">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I7">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J7">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N7">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O7">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P7">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q7">
-        <v>0.01766000217755555</v>
+        <v>0.09373428774122222</v>
       </c>
       <c r="R7">
-        <v>0.158940019598</v>
+        <v>0.8436085896709999</v>
       </c>
       <c r="S7">
-        <v>0.02480180000116914</v>
+        <v>0.05189333515851927</v>
       </c>
       <c r="T7">
-        <v>0.02480180000116914</v>
+        <v>0.05189333515851926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H8">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I8">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J8">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N8">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O8">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P8">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q8">
-        <v>0.001840937592666667</v>
+        <v>0.04689547898188889</v>
       </c>
       <c r="R8">
-        <v>0.016568438334</v>
+        <v>0.422059310837</v>
       </c>
       <c r="S8">
-        <v>0.002585422443830772</v>
+        <v>0.02596235451156291</v>
       </c>
       <c r="T8">
-        <v>0.002585422443830772</v>
+        <v>0.0259623545115629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H9">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I9">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J9">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N9">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O9">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P9">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q9">
-        <v>0.001232566785333333</v>
+        <v>0.04478046497655555</v>
       </c>
       <c r="R9">
-        <v>0.011093101068</v>
+        <v>0.4030241847889999</v>
       </c>
       <c r="S9">
-        <v>0.001731023280210756</v>
+        <v>0.0247914368752468</v>
       </c>
       <c r="T9">
-        <v>0.001731023280210756</v>
+        <v>0.0247914368752468</v>
       </c>
     </row>
   </sheetData>
